--- a/tests/testthat/data/df3.xlsx
+++ b/tests/testthat/data/df3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjalocha\Desktop\Mat\Projekty\baseImportance\tests\testthat\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjalocha\Desktop\Mat\baseImportance\tests\testthat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{147C4869-29CA-463E-A486-3A327238E405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0AD391-E2C4-4EF9-8846-F15F15EF2A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EF766FDE-F2EE-4EBC-886B-AF129F1E79CA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
   <si>
     <t>model_variable</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>MODEL_ID</t>
-  </si>
-  <si>
-    <t>class</t>
   </si>
   <si>
     <t>RF</t>
@@ -453,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0496E36F-DBCC-47D8-9A1C-FCFBD4050263}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,329 +472,278 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>102</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3">
         <v>102</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>102</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5">
         <v>102</v>
       </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1">
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>102</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
         <v>3.1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>102</v>
       </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
       <c r="C8">
         <v>102</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="1">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="E9" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>103</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C13">
+        <v>103</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>103</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>103</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>103</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>103</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C15">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="1">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>103</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="E15" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>103</v>
+      </c>
+      <c r="D16" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="1">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="E16" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>103</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>103</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
       <c r="C17">
         <v>103</v>
       </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1">
         <v>2.4</v>
       </c>
     </row>
